--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T20:45:59+00:00</t>
+    <t>2022-11-16T15:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:08:29+00:00</t>
+    <t>2022-11-16T15:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:32:30+00:00</t>
+    <t>2022-11-16T21:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:06+00:00</t>
+    <t>2022-11-17T18:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T18:46:46+00:00</t>
+    <t>2022-11-17T18:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T18:50:22+00:00</t>
+    <t>2022-11-17T19:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="286">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T19:05:57+00:00</t>
+    <t>2022-11-18T18:58:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -609,6 +609,9 @@
   </si>
   <si>
     <t>Group References</t>
+  </si>
+  <si>
+    <t>Contains the Subjects group references.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -3286,7 +3289,7 @@
         <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3349,7 +3352,7 @@
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3366,7 +3369,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3392,16 +3395,16 @@
         <v>101</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>104</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>73</v>
@@ -3450,7 +3453,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>71</v>
@@ -3479,7 +3482,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3502,13 +3505,13 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3559,7 +3562,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>71</v>
@@ -3574,21 +3577,21 @@
         <v>120</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3614,10 +3617,10 @@
         <v>160</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3644,13 +3647,13 @@
         <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>73</v>
@@ -3668,7 +3671,7 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>82</v>
@@ -3683,21 +3686,21 @@
         <v>120</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3720,16 +3723,16 @@
         <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3779,7 +3782,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>71</v>
@@ -3808,7 +3811,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3831,7 +3834,7 @@
         <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>95</v>
@@ -3917,7 +3920,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4028,11 +4031,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4054,16 +4057,16 @@
         <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>104</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>73</v>
@@ -4112,7 +4115,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>71</v>
@@ -4141,7 +4144,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4164,13 +4167,13 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4200,10 +4203,10 @@
         <v>151</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>73</v>
@@ -4221,7 +4224,7 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>71</v>
@@ -4250,7 +4253,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4273,13 +4276,13 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4306,13 +4309,13 @@
         <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>73</v>
@@ -4330,7 +4333,7 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>71</v>
@@ -4345,21 +4348,21 @@
         <v>120</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4382,16 +4385,16 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4420,10 +4423,10 @@
         <v>151</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>73</v>
@@ -4441,7 +4444,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>71</v>
@@ -4456,7 +4459,7 @@
         <v>120</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>73</v>
@@ -4465,12 +4468,12 @@
         <v>73</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4493,13 +4496,13 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4529,10 +4532,10 @@
         <v>151</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>73</v>
@@ -4550,7 +4553,7 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>71</v>
@@ -4579,7 +4582,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4602,19 +4605,19 @@
         <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>73</v>
@@ -4663,7 +4666,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>71</v>
@@ -4692,7 +4695,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4715,17 +4718,17 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>73</v>
@@ -4774,7 +4777,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>71</v>
@@ -4803,11 +4806,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4826,13 +4829,13 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4883,7 +4886,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>71</v>
@@ -4898,7 +4901,7 @@
         <v>120</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>73</v>
@@ -4912,7 +4915,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4935,13 +4938,13 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4992,7 +4995,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>82</v>
@@ -5007,7 +5010,7 @@
         <v>120</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>73</v>
@@ -5021,7 +5024,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5044,13 +5047,13 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5101,7 +5104,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>82</v>
@@ -5130,7 +5133,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5153,16 +5156,16 @@
         <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5212,7 +5215,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>71</v>
@@ -5227,7 +5230,7 @@
         <v>120</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>73</v>
@@ -5241,7 +5244,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5264,13 +5267,13 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5321,7 +5324,7 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>71</v>
@@ -5336,7 +5339,7 @@
         <v>120</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>73</v>
@@ -5350,7 +5353,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5373,13 +5376,13 @@
         <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5430,7 +5433,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>71</v>
@@ -5445,7 +5448,7 @@
         <v>120</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T18:58:55+00:00</t>
+    <t>2022-11-21T14:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T14:25:15+00:00</t>
+    <t>2022-11-21T14:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T14:25:54+00:00</t>
+    <t>2022-11-21T15:06:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:06:17+00:00</t>
+    <t>2022-11-21T15:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:57:34+00:00</t>
+    <t>2022-11-21T15:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:58:19+00:00</t>
+    <t>2022-11-21T15:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:59:26+00:00</t>
+    <t>2022-11-21T16:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T16:10:12+00:00</t>
+    <t>2022-11-21T16:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T16:11:07+00:00</t>
+    <t>2022-11-22T17:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T17:30:40+00:00</t>
+    <t>2022-11-22T21:05:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T21:05:37+00:00</t>
+    <t>2022-11-28T16:09:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:09:45+00:00</t>
+    <t>2022-11-28T16:23:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:23:56+00:00</t>
+    <t>2022-11-28T16:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:45:04+00:00</t>
+    <t>2022-11-28T18:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:28:29+00:00</t>
+    <t>2022-11-28T18:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:16+00:00</t>
+    <t>2022-11-28T18:44:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:54+00:00</t>
+    <t>2022-11-28T18:46:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:46:24+00:00</t>
+    <t>2022-11-28T18:54:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:54:17+00:00</t>
+    <t>2022-11-28T18:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:57:56+00:00</t>
+    <t>2022-11-28T19:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T19:21:05+00:00</t>
+    <t>2022-11-28T20:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T20:19:31+00:00</t>
+    <t>2022-11-28T21:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:47:14+00:00</t>
+    <t>2022-11-28T21:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:50:18+00:00</t>
+    <t>2022-11-28T22:13:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T22:13:55+00:00</t>
+    <t>2022-11-29T14:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:31:35+00:00</t>
+    <t>2022-11-29T14:39:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:39:13+00:00</t>
+    <t>2022-11-29T18:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T18:40:08+00:00</t>
+    <t>2022-11-29T19:09:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:09:47+00:00</t>
+    <t>2022-11-29T19:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:18:22+00:00</t>
+    <t>2022-11-29T19:32:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:32:41+00:00</t>
+    <t>2022-11-29T19:42:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:42:29+00:00</t>
+    <t>2022-11-29T19:57:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-the-research-subject.xlsx
+++ b/StructureDefinition-the-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:57:48+00:00</t>
+    <t>2022-11-29T20:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
